--- a/DirectX/Bin/Asset/Brotato/tables/Weapon.xlsx
+++ b/DirectX/Bin/Asset/Brotato/tables/Weapon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\jglee\ASTR\AstrDX\DirectX\Bin\Asset\Brotato\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2965AEB3-DBCE-4278-BDE1-8EEC20352025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B944EB0-00C9-4FF5-B97E-82845D844C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D120B664-9625-4DC7-9A8C-DD4CF0EBB165}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="28320" xr2:uid="{D120B664-9625-4DC7-9A8C-DD4CF0EBB165}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>ID</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -137,6 +137,14 @@
   </si>
   <si>
     <t>weapons/melee/fist/fist_icon.png</t>
+  </si>
+  <si>
+    <t>DamageScale3_Type</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageScale3_Percent</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1108,16 +1116,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F041C6E9-5782-4583-B661-038F00A20FAE}">
-  <dimension ref="A1:AC5"/>
+  <dimension ref="A1:AE5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1152,61 +1160,67 @@
         <v>7</v>
       </c>
       <c r="L1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>13</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>24</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>14</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>15</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>16</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>17</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>18</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>23</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1234,29 +1248,29 @@
       <c r="I2">
         <v>100</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>780</v>
       </c>
-      <c r="M2">
+      <c r="O2">
         <v>1</v>
       </c>
-      <c r="N2">
+      <c r="P2">
         <v>150</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <v>150</v>
       </c>
-      <c r="P2">
+      <c r="R2">
         <v>15</v>
       </c>
-      <c r="Q2">
+      <c r="S2">
         <v>0</v>
       </c>
-      <c r="AC2">
+      <c r="AE2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1284,26 +1298,26 @@
       <c r="I3">
         <v>100</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>730</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>1</v>
       </c>
-      <c r="N3">
+      <c r="P3">
         <v>150</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>150</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <v>15</v>
       </c>
-      <c r="AC3">
+      <c r="AE3">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1331,26 +1345,26 @@
       <c r="I4">
         <v>100</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>690</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>1</v>
       </c>
-      <c r="N4">
+      <c r="P4">
         <v>150</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <v>150</v>
       </c>
-      <c r="P4">
+      <c r="R4">
         <v>15</v>
       </c>
-      <c r="AC4">
+      <c r="AE4">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1378,22 +1392,22 @@
       <c r="I5">
         <v>100</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>590</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>1</v>
       </c>
-      <c r="N5">
+      <c r="P5">
         <v>150</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <v>150</v>
       </c>
-      <c r="P5">
+      <c r="R5">
         <v>15</v>
       </c>
-      <c r="AC5">
+      <c r="AE5">
         <v>91</v>
       </c>
     </row>
